--- a/documentation/3_1_Modele_Journal - Cyril.xlsx
+++ b/documentation/3_1_Modele_Journal - Cyril.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFA3E85D-F96B-4E17-8EB5-387FF60443C4}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E166E34-CD36-4E6C-8AED-AB64705D9323}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="19">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -120,10 +120,54 @@
     <t>Total général &gt;</t>
   </si>
   <si>
-    <t>Plannification</t>
+    <t>implémentation de la classe RoverModel</t>
   </si>
   <si>
-    <t>implémentation de la classe RoverModel</t>
+    <t>Daily scrum</t>
+  </si>
+  <si>
+    <t>Pour l'implémentation de la classe RoverModel, je suis un peu perdu. Comme je n'ai pas de vu d'ensemble du projet, j'ai de la peine à m'imaginer à quoi sert cette classe, où elle sera utilisé dans le code et quelle méthode elle doit appelé d'autres classes. En bref, je sais pas trop ce que je dois coder ici.</t>
+  </si>
+  <si>
+    <t>Hohl Cyril</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Projet: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Explorations de galeries speleologiques</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+  </si>
+  <si>
+    <t>BusinessCase</t>
+  </si>
+  <si>
+    <t>Planning version 1</t>
+  </si>
+  <si>
+    <t>Planning version 2</t>
   </si>
 </sst>
 </file>
@@ -469,10 +513,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -509,10 +549,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -523,6 +559,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -561,8 +605,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1637,6 +1681,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2043,37 +2091,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2086,43 +2134,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2135,43 +2183,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2184,43 +2232,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2233,43 +2281,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2282,43 +2330,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2331,43 +2379,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2380,43 +2428,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2429,43 +2477,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2478,43 +2526,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2527,43 +2575,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2576,10 +2624,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2593,49 +2641,47 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2652,38 +2698,40 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="Terminé">
@@ -2804,7 +2852,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:C8"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2818,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2826,7 +2874,7 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35"/>
@@ -2855,11 +2903,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="26">
         <v>46000</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="7">
@@ -2867,35 +2915,39 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="8">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2904,47 +2956,51 @@
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13">
+        <v>45992</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2957,43 +3013,49 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13">
+        <v>45993</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3006,43 +3068,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3055,43 +3117,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3104,43 +3166,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3153,43 +3215,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3202,43 +3264,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3251,43 +3313,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3300,43 +3362,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3349,43 +3411,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3398,10 +3460,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3411,19 +3473,90 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3435,77 +3568,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -3677,37 +3739,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3720,43 +3782,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3769,43 +3831,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3818,43 +3880,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3867,43 +3929,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3916,43 +3978,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3965,43 +4027,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4014,43 +4076,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4063,43 +4125,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4112,43 +4174,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4161,43 +4223,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4210,10 +4272,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4227,15 +4289,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4247,77 +4380,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -4489,37 +4551,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4532,43 +4594,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4581,43 +4643,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4630,43 +4692,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4679,43 +4741,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4728,43 +4790,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4777,43 +4839,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4826,43 +4888,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4875,43 +4937,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4924,43 +4986,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4973,43 +5035,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5022,10 +5084,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -5039,15 +5101,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5059,77 +5192,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -5253,17 +5315,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5476,6 +5527,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
@@ -5485,19 +5547,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5514,4 +5563,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal - Cyril.xlsx
+++ b/documentation/3_1_Modele_Journal - Cyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E166E34-CD36-4E6C-8AED-AB64705D9323}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DF06C51-94A7-4457-884C-A22B9624F3FF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="22">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Planning version 2</t>
+  </si>
+  <si>
+    <t>Revoir la classe RoverModel</t>
+  </si>
+  <si>
+    <t>implémentation de l'ihm</t>
+  </si>
+  <si>
+    <t>Aujourd'hui, je me suis de nouveau senti un peu perdu. J'ai donc décidé de commencer l'IHM. J'étais content de ce que j'ai réussi à faire au niveau IHM. Pour l'instant, elle permet d'afficher des valeurs statique. Il me reste encore à faire en sorte que ces valeurs soit dynamique (en fonction de ce que les capteurs envoient).</t>
   </si>
 </sst>
 </file>
@@ -513,6 +522,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -549,6 +562,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -559,14 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -605,8 +614,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1681,10 +1690,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2091,37 +2096,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2134,43 +2139,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2183,43 +2188,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2232,43 +2237,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2281,43 +2286,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2330,43 +2335,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2379,43 +2384,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2428,43 +2433,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2477,43 +2482,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2526,43 +2531,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2575,43 +2580,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2624,10 +2629,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2641,15 +2646,81 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2666,72 +2737,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="Terminé">
@@ -2852,7 +2857,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2903,51 +2908,39 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
-        <v>46000</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="36">
+        <v>45992</v>
+      </c>
+      <c r="B6" s="32"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="7">
-        <v>1.5</v>
-      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="8">
-        <v>0.2</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="8">
-        <v>1.7</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2956,51 +2949,57 @@
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>45992</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="14">
+        <v>45993</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3009,53 +3008,61 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>45993</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="14">
+        <v>46000</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="8">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="8">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3064,47 +3071,63 @@
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="14">
+        <v>46006</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="8">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="8">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3113,47 +3136,49 @@
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3166,43 +3191,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3215,43 +3240,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3264,43 +3289,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3313,43 +3338,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3362,43 +3387,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3411,43 +3436,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3460,10 +3485,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3473,90 +3498,19 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>3.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3568,6 +3522,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -3739,37 +3764,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3782,43 +3807,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3831,43 +3856,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3880,43 +3905,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3929,43 +3954,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3978,43 +4003,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4027,43 +4052,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4076,43 +4101,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4125,43 +4150,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4174,43 +4199,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4223,43 +4248,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4272,10 +4297,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4289,86 +4314,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4380,6 +4334,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -4551,37 +4576,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4594,43 +4619,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4643,43 +4668,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4692,43 +4717,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4741,43 +4766,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4790,43 +4815,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4839,43 +4864,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4888,43 +4913,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4937,43 +4962,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4986,43 +5011,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -5035,43 +5060,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5084,10 +5109,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -5101,86 +5126,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5192,6 +5146,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -5306,15 +5331,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5527,6 +5543,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5539,14 +5564,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5565,6 +5582,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/3_1_Modele_Journal - Cyril.xlsx
+++ b/documentation/3_1_Modele_Journal - Cyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DF06C51-94A7-4457-884C-A22B9624F3FF}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88C99FD2-FD6B-4E80-84CF-957BAEBDE4CD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="23">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Aujourd'hui, je me suis de nouveau senti un peu perdu. J'ai donc décidé de commencer l'IHM. J'étais content de ce que j'ai réussi à faire au niveau IHM. Pour l'instant, elle permet d'afficher des valeurs statique. Il me reste encore à faire en sorte que ces valeurs soit dynamique (en fonction de ce que les capteurs envoient).</t>
+  </si>
+  <si>
+    <t>tzhnr</t>
   </si>
 </sst>
 </file>
@@ -2852,12 +2855,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2869,7 +2872,7 @@
     <col min="218" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
@@ -2877,7 +2880,7 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -2907,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36">
         <v>45992</v>
       </c>
@@ -2915,31 +2918,31 @@
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -2952,13 +2955,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>45993</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="18" t="s">
         <v>17</v>
@@ -2980,13 +2983,16 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="M15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>

--- a/documentation/3_1_Modele_Journal - Cyril.xlsx
+++ b/documentation/3_1_Modele_Journal - Cyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88C99FD2-FD6B-4E80-84CF-957BAEBDE4CD}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C9D5C63-15A7-4CBF-B252-5BFEAB397EE4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="22">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Aujourd'hui, je me suis de nouveau senti un peu perdu. J'ai donc décidé de commencer l'IHM. J'étais content de ce que j'ai réussi à faire au niveau IHM. Pour l'instant, elle permet d'afficher des valeurs statique. Il me reste encore à faire en sorte que ces valeurs soit dynamique (en fonction de ce que les capteurs envoient).</t>
-  </si>
-  <si>
-    <t>tzhnr</t>
   </si>
 </sst>
 </file>
@@ -525,10 +522,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -565,10 +558,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -579,6 +568,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -617,8 +614,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2099,37 +2096,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2142,43 +2139,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2191,43 +2188,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2240,43 +2237,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2289,43 +2286,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2338,43 +2335,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2387,43 +2384,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2436,43 +2433,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2485,43 +2482,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2534,43 +2531,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2583,43 +2580,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2632,10 +2629,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2649,49 +2646,47 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2708,38 +2703,40 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="Terminé">
@@ -2855,12 +2852,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2872,7 +2869,7 @@
     <col min="218" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
@@ -2880,7 +2877,7 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
@@ -2890,7 +2887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -2902,7 +2899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -2910,40 +2907,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
         <v>45992</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2955,57 +2952,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>45993</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
-      <c r="M15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3018,57 +3012,57 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>46000</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8">
         <v>1.8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3081,59 +3075,59 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>46006</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8">
         <v>4.8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3146,45 +3140,47 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13">
+        <v>46007</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3197,43 +3193,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3246,43 +3242,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3295,43 +3291,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3344,43 +3340,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3393,43 +3389,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3442,43 +3438,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3491,10 +3487,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3508,15 +3504,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3528,77 +3595,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -3770,37 +3766,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3813,43 +3809,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3862,43 +3858,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3911,43 +3907,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3960,43 +3956,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4009,43 +4005,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4058,43 +4054,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4107,43 +4103,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4156,43 +4152,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4205,43 +4201,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4254,43 +4250,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4303,10 +4299,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4320,15 +4316,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4340,77 +4407,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -4582,37 +4578,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4625,43 +4621,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4674,43 +4670,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4723,43 +4719,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4772,43 +4768,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4821,43 +4817,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4870,43 +4866,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4919,43 +4915,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4968,43 +4964,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -5017,43 +5013,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -5066,43 +5062,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5115,10 +5111,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -5132,15 +5128,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5152,77 +5219,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -5337,6 +5333,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5549,27 +5565,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5586,25 +5603,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal - Cyril.xlsx
+++ b/documentation/3_1_Modele_Journal - Cyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C9D5C63-15A7-4CBF-B252-5BFEAB397EE4}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1364DBA5-C191-4DF2-8629-A6E16A49C8D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="24">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>Aujourd'hui, je me suis de nouveau senti un peu perdu. J'ai donc décidé de commencer l'IHM. J'étais content de ce que j'ai réussi à faire au niveau IHM. Pour l'instant, elle permet d'afficher des valeurs statique. Il me reste encore à faire en sorte que ces valeurs soit dynamique (en fonction de ce que les capteurs envoient).</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>RDV Client/ Daily scrum/ Sprint review/ Sprint retrospective/Sprint plannig</t>
   </si>
 </sst>
 </file>
@@ -522,6 +528,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -558,6 +568,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -568,14 +582,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -614,8 +620,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2096,37 +2102,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2139,43 +2145,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2188,43 +2194,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2237,43 +2243,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2286,43 +2292,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2335,43 +2341,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2384,43 +2390,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2433,43 +2439,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2482,43 +2488,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2531,43 +2537,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2580,43 +2586,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2629,10 +2635,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2646,15 +2652,81 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2671,72 +2743,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="Terminé">
@@ -2854,10 +2860,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2908,7 +2914,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="36">
         <v>45992</v>
       </c>
       <c r="B6" s="32"/>
@@ -2916,31 +2922,31 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2953,53 +2959,53 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>45993</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3012,57 +3018,57 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="14">
         <v>46000</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8">
         <v>1.8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3075,59 +3081,59 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="14">
         <v>46006</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8">
         <v>4.8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3140,47 +3146,59 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="14">
         <v>46007</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="7">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="8">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3189,47 +3207,47 @@
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3242,43 +3260,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3291,43 +3309,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3340,43 +3358,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3389,43 +3407,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3438,43 +3456,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3487,10 +3505,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3500,90 +3518,19 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>15</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3595,6 +3542,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -3766,37 +3784,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3809,43 +3827,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3858,43 +3876,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3907,43 +3925,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3956,43 +3974,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4005,43 +4023,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4054,43 +4072,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4103,43 +4121,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4152,43 +4170,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4201,43 +4219,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4250,43 +4268,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4299,10 +4317,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4316,86 +4334,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4407,6 +4354,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -4578,37 +4596,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4621,43 +4639,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4670,43 +4688,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4719,43 +4737,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4768,43 +4786,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4817,43 +4835,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4866,43 +4884,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4915,43 +4933,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4964,43 +4982,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -5013,43 +5031,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -5062,43 +5080,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5111,10 +5129,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -5128,86 +5146,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5219,6 +5166,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -5333,26 +5351,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5565,28 +5563,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5603,4 +5600,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal - Cyril.xlsx
+++ b/documentation/3_1_Modele_Journal - Cyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1364DBA5-C191-4DF2-8629-A6E16A49C8D2}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE5CA3E5-D03F-4C5A-A9E4-8FA1B2287D7F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>RDV Client/ Daily scrum/ Sprint review/ Sprint retrospective/Sprint plannig</t>
+  </si>
+  <si>
+    <t>Reprise en main du projet</t>
+  </si>
+  <si>
+    <t>Discussion avec l’enseignant sur le sprint planning (redéfinition des tâches dans le Kanban)</t>
+  </si>
+  <si>
+    <t>Intégration du capteur de température/humidité dans l'application</t>
+  </si>
+  <si>
+    <t>Tester l'intégration du capteur de température/humidité à l'application</t>
+  </si>
+  <si>
+    <t>Aujourd'hui, j'ai adapté l'IHM suite à la rencontre avec le client. Je suis satisfait du résultat et trouve que le projet avance bien.</t>
+  </si>
+  <si>
+    <t>La redéfinition des tâches dans le kanban et le fait de discuter de ces tâches en groupe m'a aidé pour être plus au clair avec comment être efficace pour le projet. L'intégration du capteur de température et d'humidité à l'application s'est bien passé.</t>
   </si>
 </sst>
 </file>
@@ -528,10 +546,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -568,10 +582,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -582,6 +592,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -620,8 +638,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2102,37 +2120,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2145,43 +2163,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2194,43 +2212,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2243,43 +2261,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2292,43 +2310,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2341,43 +2359,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2390,43 +2408,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2439,43 +2457,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2488,43 +2506,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2537,43 +2555,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2586,43 +2604,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2635,10 +2653,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2652,49 +2670,47 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2711,38 +2727,40 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="Terminé">
@@ -2860,10 +2878,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2914,7 +2932,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="26">
         <v>45992</v>
       </c>
       <c r="B6" s="32"/>
@@ -2922,31 +2940,31 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2959,53 +2977,53 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>45993</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3018,57 +3036,57 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>46000</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8">
         <v>1.8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3081,59 +3099,59 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>46006</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8">
         <v>4.8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3146,59 +3164,59 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>46007</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7">
         <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="19"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8">
         <v>1.3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3211,43 +3229,67 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="13">
+        <v>46027</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="8"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="8">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="8"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="8"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3256,47 +3298,49 @@
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3309,43 +3353,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3358,43 +3402,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3407,43 +3451,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3456,43 +3500,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3505,10 +3549,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -3518,19 +3562,90 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>18.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3542,77 +3657,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -3784,37 +3828,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3827,43 +3871,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3876,43 +3920,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3925,43 +3969,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3974,43 +4018,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4023,43 +4067,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4072,43 +4116,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4121,43 +4165,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4170,43 +4214,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4219,43 +4263,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4268,43 +4312,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4317,10 +4361,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -4334,15 +4378,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4354,77 +4469,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -4596,37 +4640,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4639,43 +4683,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4688,43 +4732,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4737,43 +4781,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4786,43 +4830,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4835,43 +4879,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4884,43 +4928,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4933,43 +4977,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4982,43 +5026,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -5031,43 +5075,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -5080,43 +5124,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5129,10 +5173,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -5146,15 +5190,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5166,77 +5281,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -5351,6 +5395,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5563,27 +5627,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5600,25 +5665,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal - Cyril.xlsx
+++ b/documentation/3_1_Modele_Journal - Cyril.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE5CA3E5-D03F-4C5A-A9E4-8FA1B2287D7F}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C170AC23-3859-41E0-A4C8-51FDC59E622A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_NOM_PRENOM" sheetId="8" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>La redéfinition des tâches dans le kanban et le fait de discuter de ces tâches en groupe m'a aidé pour être plus au clair avec comment être efficace pour le projet. L'intégration du capteur de température et d'humidité à l'application s'est bien passé.</t>
+  </si>
+  <si>
+    <t>Intégration du capteur de luminosité</t>
+  </si>
+  <si>
+    <t>Aujourd'hui, j'ai intégré un capteur de luminosité au projet. L'intégration s'est bien passée et avec la version actuelle, il est possible de voir les les valeurs du capteur dans la console. Je dois maintenant faire que les valeurs du capteurs s'affichent dans l'IHM. Je suis pour l'instant déjà satisfait du résultat.</t>
   </si>
 </sst>
 </file>
@@ -546,6 +552,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -582,6 +592,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -592,14 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -638,8 +644,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2072,16 +2078,16 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.54296875" style="1"/>
+    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2095,7 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -2119,38 +2125,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2162,44 +2168,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2211,44 +2217,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2260,44 +2266,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2309,44 +2315,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2358,44 +2364,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2407,44 +2413,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2456,44 +2462,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2505,44 +2511,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2554,44 +2560,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2603,44 +2609,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2652,13 +2658,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -2669,16 +2675,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2695,72 +2767,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="Terminé">
@@ -2879,21 +2885,21 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.54296875" style="1"/>
+    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
@@ -2901,7 +2907,7 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -2931,40 +2937,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
         <v>45992</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2976,54 +2982,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>45993</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3035,58 +3041,58 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>46000</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8">
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3098,60 +3104,60 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19" t="s">
+    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>46006</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8">
         <v>4.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3163,60 +3169,60 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22" t="s">
+    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>46007</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7">
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8">
         <v>1.3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3228,68 +3234,68 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22" t="s">
+    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>46027</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3301,46 +3307,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22" t="s">
+    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>46028</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3349,47 +3365,49 @@
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3401,44 +3419,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3450,44 +3468,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3499,44 +3517,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3548,13 +3566,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -3562,90 +3580,19 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3657,6 +3604,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -3780,16 +3798,16 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.54296875" style="1"/>
+    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -3797,7 +3815,7 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
@@ -3807,7 +3825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -3819,7 +3837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -3827,38 +3845,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3870,44 +3888,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3919,44 +3937,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3968,44 +3986,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4017,44 +4035,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4066,44 +4084,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4115,44 +4133,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4164,44 +4182,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4213,44 +4231,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4262,44 +4280,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4311,44 +4329,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4360,13 +4378,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -4377,87 +4395,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4469,6 +4416,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -4592,16 +4610,16 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.54296875" style="1"/>
+    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -4609,7 +4627,7 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
@@ -4619,7 +4637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -4631,7 +4649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -4639,38 +4657,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4682,44 +4700,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4731,44 +4749,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4780,44 +4798,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4829,44 +4847,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4878,44 +4896,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4927,44 +4945,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4976,44 +4994,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -5025,44 +5043,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -5074,44 +5092,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -5123,44 +5141,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5172,13 +5190,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -5189,87 +5207,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5281,6 +5228,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -5395,26 +5413,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5627,28 +5625,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5665,4 +5662,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal - Cyril.xlsx
+++ b/documentation/3_1_Modele_Journal - Cyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C170AC23-3859-41E0-A4C8-51FDC59E622A}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF0C7B9A-A6BE-46AA-91C0-7438EF0E5189}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="37">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -207,6 +207,21 @@
   </si>
   <si>
     <t>Aujourd'hui, j'ai intégré un capteur de luminosité au projet. L'intégration s'est bien passée et avec la version actuelle, il est possible de voir les les valeurs du capteur dans la console. Je dois maintenant faire que les valeurs du capteurs s'affichent dans l'IHM. Je suis pour l'instant déjà satisfait du résultat.</t>
+  </si>
+  <si>
+    <t>Introduction au module</t>
+  </si>
+  <si>
+    <t>Choix du projet</t>
+  </si>
+  <si>
+    <t>Prise en main du projet</t>
+  </si>
+  <si>
+    <t>Le projet m'a l'air intéressant mais conséquent. J'ai pour l'instant de la peine à m'imaginer par où commencer au niveau implémentation pour lancer ce projet.(Remarque faite après coup le 08.01.2026 car je ne pensais pas qu'il fallait déjà remplir le journal dès la 1er semaine de module).</t>
+  </si>
+  <si>
+    <t>Aujourd'hui, nous avons écrit le BusinessCase avec Julie et fait la 1er version du planning. Cela s'est bien passé.(Remarque faite après coup le 08.01.2026 car je ne pensais pas qu'il fallait déjà remplir le journal dès la 1er semaine de module).</t>
   </si>
 </sst>
 </file>
@@ -552,10 +567,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -592,10 +603,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -606,6 +613,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -644,8 +659,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2126,37 +2141,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2169,43 +2184,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2218,43 +2233,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2267,43 +2282,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2316,43 +2331,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2365,43 +2380,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2414,43 +2429,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2463,43 +2478,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2512,43 +2527,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2561,43 +2576,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2610,43 +2625,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2659,10 +2674,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
@@ -2676,49 +2691,47 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2735,38 +2748,40 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="Terminé">
@@ -2885,9 +2900,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2938,39 +2953,51 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="26">
         <v>45992</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="33"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2979,57 +3006,59 @@
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>45993</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3042,57 +3071,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>46000</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8">
         <v>1.8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3105,59 +3136,59 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>46006</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8">
         <v>4.8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3170,59 +3201,59 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>46007</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7">
         <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="19"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8">
         <v>1.3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3235,67 +3266,67 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>46027</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="19"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="19"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8">
         <v>4.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="19"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3308,55 +3339,55 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="13">
         <v>46028</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="19"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3369,45 +3400,45 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="25"/>
+      <c r="B54" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3420,43 +3451,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3469,43 +3500,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3518,43 +3549,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3567,10 +3598,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
@@ -3580,19 +3611,90 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3604,77 +3706,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -3846,37 +3877,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3889,43 +3920,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3938,43 +3969,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3987,43 +4018,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4036,43 +4067,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4085,43 +4116,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4134,43 +4165,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4183,43 +4214,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4232,43 +4263,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4281,43 +4312,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4330,43 +4361,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4379,10 +4410,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
@@ -4396,15 +4427,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4416,77 +4518,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -4658,37 +4689,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4701,43 +4732,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4750,43 +4781,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4799,43 +4830,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4848,43 +4879,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4897,43 +4928,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4946,43 +4977,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4995,43 +5026,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -5044,43 +5075,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -5093,43 +5124,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -5142,43 +5173,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5191,10 +5222,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
@@ -5208,15 +5239,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5228,77 +5330,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -5413,6 +5444,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5625,27 +5676,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5662,25 +5714,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal - Cyril.xlsx
+++ b/documentation/3_1_Modele_Journal - Cyril.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF0C7B9A-A6BE-46AA-91C0-7438EF0E5189}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D15CE3F6-CAAA-48C0-B9A5-458BC5435816}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_NOM_PRENOM" sheetId="8" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>Aujourd'hui, nous avons écrit le BusinessCase avec Julie et fait la 1er version du planning. Cela s'est bien passé.(Remarque faite après coup le 08.01.2026 car je ne pensais pas qu'il fallait déjà remplir le journal dès la 1er semaine de module).</t>
+  </si>
+  <si>
+    <t>Préparation de la présentation avec Julie</t>
+  </si>
+  <si>
+    <t>Création du Websummary</t>
   </si>
 </sst>
 </file>
@@ -567,6 +573,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -603,6 +613,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -613,14 +627,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -659,8 +665,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2093,16 +2099,16 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2116,7 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -2140,38 +2146,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2183,44 +2189,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2232,44 +2238,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2281,44 +2287,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2330,44 +2336,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2379,44 +2385,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2428,44 +2434,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2477,44 +2483,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2526,44 +2532,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2575,44 +2581,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2624,44 +2630,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2673,13 +2679,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -2690,16 +2696,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="36" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2716,72 +2788,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="Terminé">
@@ -2900,21 +2906,21 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
@@ -2922,7 +2928,7 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -2952,8 +2958,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36">
         <v>45992</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -2964,40 +2970,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3009,56 +3015,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>45993</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3070,60 +3076,60 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>46000</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8">
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3135,60 +3141,60 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19" t="s">
+    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
         <v>46006</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8">
         <v>4.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3200,60 +3206,60 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22" t="s">
+    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
         <v>46007</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7">
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8">
         <v>1.3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -3265,68 +3271,68 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22" t="s">
+    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
         <v>46027</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3338,56 +3344,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22" t="s">
+    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
         <v>46028</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3399,46 +3405,64 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22" t="s">
+    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>46034</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3447,47 +3471,47 @@
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3499,44 +3523,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3548,44 +3572,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3597,13 +3621,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -3611,90 +3635,19 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3706,6 +3659,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="Terminé">
@@ -3829,16 +3853,16 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -3846,7 +3870,7 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
@@ -3856,7 +3880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -3868,7 +3892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -3876,38 +3900,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3919,44 +3943,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3968,44 +3992,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4017,44 +4041,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4066,44 +4090,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4115,44 +4139,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4164,44 +4188,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4213,44 +4237,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4262,44 +4286,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -4311,44 +4335,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -4360,44 +4384,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -4409,13 +4433,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -4426,87 +4450,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="36" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -4518,6 +4471,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -4641,16 +4665,16 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -4658,7 +4682,7 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
@@ -4668,7 +4692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
@@ -4680,7 +4704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -4688,38 +4712,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -4731,44 +4755,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4780,44 +4804,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4829,44 +4853,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4878,44 +4902,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4927,44 +4951,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4976,44 +5000,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -5025,44 +5049,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -5074,44 +5098,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -5123,44 +5147,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -5172,44 +5196,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -5221,13 +5245,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -5238,87 +5262,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="36" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -5330,6 +5283,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -5444,26 +5468,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5676,28 +5680,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5714,4 +5717,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal - Cyril.xlsx
+++ b/documentation/3_1_Modele_Journal - Cyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D15CE3F6-CAAA-48C0-B9A5-458BC5435816}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90AD0B1-76E6-4141-8C00-A0196932C419}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="40">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Création du Websummary</t>
+  </si>
+  <si>
+    <t>Aujourd'hui, Je me suis senti pas très efficace dans mes tâches. C'était pendant longtemps pas si clair pour moi ce qu'il fallait mettre dans la présentation et dans le Websummary ce qui m'a fait perdre du temps.</t>
   </si>
 </sst>
 </file>
@@ -2908,7 +2911,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3476,7 +3479,9 @@
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
+      <c r="B61" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
     </row>
